--- a/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
@@ -497,7 +497,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F17"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -581,22 +581,22 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>19,05</t>
+          <t>3,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,03</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>30,88%</t>
+          <t>120,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-40,19%</t>
+          <t>33,05%</t>
         </is>
       </c>
     </row>
@@ -609,22 +609,22 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-14,7; 56,57</t>
+          <t>-1,01; 8,51</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-65,89; 26,55</t>
+          <t>-3,28; 4,57</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-16,97; 189,56</t>
+          <t>-36,84; 768,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-83,31; 179,29</t>
+          <t>-81,26; —</t>
         </is>
       </c>
     </row>
@@ -641,22 +641,22 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>13,14</t>
+          <t>17,46</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,22%</t>
+          <t>92,63%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>10,88%</t>
+          <t>35,68%</t>
         </is>
       </c>
     </row>
@@ -669,22 +669,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,45; 30,53</t>
+          <t>7,92; 24,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-15,55; 24,58</t>
+          <t>-6,93; 20,36</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 78,22</t>
+          <t>33,9; 163,02</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-23,21; 60,96</t>
+          <t>-24,84; 123,34</t>
         </is>
       </c>
     </row>
@@ -701,22 +701,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,28</t>
+          <t>6,27</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>9,96</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>12,95%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-0,02%</t>
+          <t>27,38%</t>
         </is>
       </c>
     </row>
@@ -729,22 +729,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,47; 12,31</t>
+          <t>-1,93; 14,61</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-13,5; 10,65</t>
+          <t>0,83; 19,15</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-11,09; 22,7</t>
+          <t>-3,71; 33,52</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-22,21; 24,45</t>
+          <t>1,49; 63,88</t>
         </is>
       </c>
     </row>
@@ -761,22 +761,22 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>4,68</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,34</t>
+          <t>6,49</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>4,31%</t>
+          <t>9,05%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,96%</t>
+          <t>14,38%</t>
         </is>
       </c>
     </row>
@@ -789,22 +789,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 11,98</t>
+          <t>-4,08; 12,05</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-1,97; 16,24</t>
+          <t>-2,28; 15,49</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-7,85; 21,18</t>
+          <t>-7,42; 25,51</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 35,03</t>
+          <t>-4,72; 37,98</t>
         </is>
       </c>
     </row>
@@ -821,22 +821,22 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>8,95</t>
+          <t>10,51</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>20,43</t>
+          <t>21,82</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>21,23%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>43,09%</t>
+          <t>52,56%</t>
         </is>
       </c>
     </row>
@@ -849,22 +849,22 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 18,25</t>
+          <t>1,41; 19,92</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,39; 29,75</t>
+          <t>12,53; 31,06</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-2,24; 35,99</t>
+          <t>2,22; 44,76</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>18,14; 72,02</t>
+          <t>26,38; 86,27</t>
         </is>
       </c>
     </row>
@@ -881,22 +881,22 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>0,69</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,62</t>
+          <t>3,24</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>6,66%</t>
         </is>
       </c>
     </row>
@@ -909,22 +909,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-5,19; 12,93</t>
+          <t>-8,17; 9,63</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-10,72; 11,71</t>
+          <t>-7,98; 13,59</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-7,63; 21,86</t>
+          <t>-12,85; 17,67</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-17,89; 24,61</t>
+          <t>-14,26; 32,03</t>
         </is>
       </c>
     </row>
@@ -941,22 +941,22 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,32</t>
+          <t>8,7</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>5,72</t>
+          <t>9,47</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>8,74%</t>
+          <t>22,13%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>11,03%</t>
+          <t>28,23%</t>
         </is>
       </c>
     </row>
@@ -969,22 +969,29 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,19</t>
+          <t>5,01; 12,17</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0,4; 11,18</t>
+          <t>5,07; 13,71</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1,69; 17,42</t>
+          <t>12,22; 33,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,96; 23,31</t>
+          <t>14,17; 44,31</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P20_5_R-Edad-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -118,7 +121,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -131,6 +134,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -497,7 +506,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -579,179 +588,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>3,65</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>0,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>120,38%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>33,05%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>19.06053301453679</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-22.91162741343469</v>
+      </c>
+      <c r="E4" s="6" t="n">
+        <v>0.3090179621336636</v>
+      </c>
+      <c r="F4" s="6" t="n">
+        <v>-0.4119912690262535</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-1,01; 8,51</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,28; 4,57</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-36,84; 768,51</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-81,26; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-16.85283430241323</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-66.45851446345836</v>
+      </c>
+      <c r="E5" s="6" t="n">
+        <v>-0.2003893913186476</v>
+      </c>
+      <c r="F5" s="6" t="n">
+        <v>-0.8327241559825616</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>61.67862624715218</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>27.65329948231594</v>
+      </c>
+      <c r="E6" s="6" t="n">
+        <v>2.666976088803633</v>
+      </c>
+      <c r="F6" s="6" t="n">
+        <v>1.944585891180474</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>25-34</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>17,46</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>8,4</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>92,63%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>35,68%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>7,92; 24,87</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-6,93; 20,36</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>33,9; 163,02</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-24,84; 123,34</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>13.15128734093318</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>6.378140376615882</v>
+      </c>
+      <c r="E7" s="6" t="n">
+        <v>0.2623481590847355</v>
+      </c>
+      <c r="F7" s="6" t="n">
+        <v>0.1238843330637293</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>35-44</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,27</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>9,96</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>12,95%</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>27,38%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-2.946828030204991</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-13.69609267284683</v>
+      </c>
+      <c r="E8" s="6" t="n">
+        <v>-0.04122349949645884</v>
+      </c>
+      <c r="F8" s="6" t="n">
+        <v>-0.2133901478974674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-1,93; 14,61</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>0,83; 19,15</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-3,71; 33,52</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>1,49; 63,88</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>30.62840512951006</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>26.64070476451583</v>
+      </c>
+      <c r="E9" s="6" t="n">
+        <v>0.8510700318828607</v>
+      </c>
+      <c r="F9" s="6" t="n">
+        <v>0.7217945484126409</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>45-54</t>
+          <t>35-44</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -759,179 +716,127 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>4,68</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>6,49</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>9,05%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>14,38%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>2.278188976479079</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>3.014771403612759</v>
+      </c>
+      <c r="E10" s="6" t="n">
+        <v>0.03650284700096699</v>
+      </c>
+      <c r="F10" s="6" t="n">
+        <v>0.06024495295297736</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-4,08; 12,05</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-2,28; 15,49</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-7,42; 25,51</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-4,72; 37,98</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-6.713164989111034</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-8.69195927581335</v>
+      </c>
+      <c r="E11" s="6" t="n">
+        <v>-0.09890118291094649</v>
+      </c>
+      <c r="F11" s="6" t="n">
+        <v>-0.1543458967593347</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>55-64</t>
-        </is>
-      </c>
+      <c r="A12" s="1" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>11.45544597357559</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>13.64783965081497</v>
+      </c>
+      <c r="E12" s="6" t="n">
+        <v>0.2078794958223004</v>
+      </c>
+      <c r="F12" s="6" t="n">
+        <v>0.3202051756675142</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>10,51</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>21,82</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>21,23%</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>52,56%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,41; 19,92</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>12,53; 31,06</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>2,22; 44,76</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>26,38; 86,27</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>2.679688012866421</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>7.370705240177333</v>
+      </c>
+      <c r="E13" s="6" t="n">
+        <v>0.04312504381293595</v>
+      </c>
+      <c r="F13" s="6" t="n">
+        <v>0.1404203774657655</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>65 Y MAS</t>
-        </is>
-      </c>
+      <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,69</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>3,24</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>1,16%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-5.627306679089187</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-1.862931161072362</v>
+      </c>
+      <c r="E14" s="6" t="n">
+        <v>-0.08425309178169448</v>
+      </c>
+      <c r="F14" s="6" t="n">
+        <v>-0.03166114770128976</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>-8,17; 9,63</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>-7,98; 13,59</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-12,85; 17,67</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>-14,26; 32,03</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.84476888351656</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>16.75200738471963</v>
+      </c>
+      <c r="E15" s="6" t="n">
+        <v>0.2091554856820414</v>
+      </c>
+      <c r="F15" s="6" t="n">
+        <v>0.3594941573443471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>55-64</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -939,57 +844,189 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>8,7</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>9,47</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>22,13%</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>28,23%</t>
-        </is>
+      <c r="C16" s="5" t="n">
+        <v>8.948748890782976</v>
+      </c>
+      <c r="D16" s="5" t="n">
+        <v>22.02051194048528</v>
+      </c>
+      <c r="E16" s="6" t="n">
+        <v>0.1547306507911849</v>
+      </c>
+      <c r="F16" s="6" t="n">
+        <v>0.4698661322164404</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>5,01; 12,17</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>5,07; 13,71</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>12,22; 33,32</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>14,17; 44,31</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>-0.7358453546150606</v>
+      </c>
+      <c r="D17" s="5" t="n">
+        <v>11.51198792714443</v>
+      </c>
+      <c r="E17" s="6" t="n">
+        <v>-0.01110564095559215</v>
+      </c>
+      <c r="F17" s="6" t="n">
+        <v>0.2114313439429153</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>19.25288991534138</v>
+      </c>
+      <c r="D18" s="5" t="n">
+        <v>32.05104220416936</v>
+      </c>
+      <c r="E18" s="6" t="n">
+        <v>0.3743897726422976</v>
+      </c>
+      <c r="F18" s="6" t="n">
+        <v>0.8185867854213448</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>3.873673682438949</v>
+      </c>
+      <c r="D19" s="5" t="n">
+        <v>2.586672827333802</v>
+      </c>
+      <c r="E19" s="6" t="n">
+        <v>0.05940414825345309</v>
+      </c>
+      <c r="F19" s="6" t="n">
+        <v>0.04782064221519483</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>-5.084738076963291</v>
+      </c>
+      <c r="D20" s="5" t="n">
+        <v>-9.240548999041158</v>
+      </c>
+      <c r="E20" s="6" t="n">
+        <v>-0.0662647863185387</v>
+      </c>
+      <c r="F20" s="6" t="n">
+        <v>-0.1515134611572104</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>12.72206904209007</v>
+      </c>
+      <c r="D21" s="5" t="n">
+        <v>14.41888456886053</v>
+      </c>
+      <c r="E21" s="6" t="n">
+        <v>0.2175948457675995</v>
+      </c>
+      <c r="F21" s="6" t="n">
+        <v>0.313296602098051</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>5.324812067977502</v>
+      </c>
+      <c r="D22" s="5" t="n">
+        <v>7.208156538135968</v>
+      </c>
+      <c r="E22" s="6" t="n">
+        <v>0.08744632078645975</v>
+      </c>
+      <c r="F22" s="6" t="n">
+        <v>0.1409041025703651</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>1.050901171755623</v>
+      </c>
+      <c r="D23" s="5" t="n">
+        <v>1.684078062008445</v>
+      </c>
+      <c r="E23" s="6" t="n">
+        <v>0.0161877442493183</v>
+      </c>
+      <c r="F23" s="6" t="n">
+        <v>0.03138029644372387</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>9.86707010435075</v>
+      </c>
+      <c r="D24" s="5" t="n">
+        <v>12.29300908267918</v>
+      </c>
+      <c r="E24" s="6" t="n">
+        <v>0.1710719427995693</v>
+      </c>
+      <c r="F24" s="6" t="n">
+        <v>0.2614093650561151</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -997,16 +1034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
     <mergeCell ref="C1:D1"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
